--- a/assets/External.xlsx
+++ b/assets/External.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shelterwa.sharepoint.com/sites/ShelterWA/Shared Documents/Data/SOURCE OF TRUTH/DASHBOARD PROJECT/99-PROD/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://shelterwa.sharepoint.com/sites/ShelterWA/Shared Documents/Data/SOURCE OF TRUTH/DASHBOARD PROJECT/PROD/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{75826168-519E-4EAA-8DD4-708FBA9B56BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE28CDDD-B55B-4E34-A48E-EE4CBF33406B}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{75826168-519E-4EAA-8DD4-708FBA9B56BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81C38018-CF60-46BF-8BCE-376913ECC21B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{40AB96E4-9933-4012-808F-5B86F9C572D2}"/>
   </bookViews>
@@ -65,23 +65,29 @@
     <t>Anglicare WA Rental Affordability Snapshot</t>
   </si>
   <si>
-    <t>North West (including Pilbara and Kimberley)</t>
-  </si>
-  <si>
-    <t>Perth Metro</t>
-  </si>
-  <si>
-    <t>South West and Great Southern</t>
+    <t>North West (including Pilbara and Kimberley) Rental Affordability</t>
+  </si>
+  <si>
+    <t>Perth Metro Rental Affordability</t>
+  </si>
+  <si>
+    <t>South West and Great Southern Rental Affordability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -426,7 +432,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,20 +498,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003BFB88B4067ECB40AA3F2E0EF672F6BB" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e3ee718013e16ce541af019e407c596">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="208c7ed5-c894-4803-a7c7-831a8154db8b" xmlns:ns3="0f6d7760-f7d3-42f3-b5a6-16e4c400c838" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f5d8320d0ebd10b98e2500fa73c9336" ns2:_="" ns3:_="">
     <xsd:import namespace="208c7ed5-c894-4803-a7c7-831a8154db8b"/>
@@ -773,6 +771,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -789,14 +796,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C142F92-CC39-44E8-8CB5-8AFE56EBC8FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48B6DE99-1346-47F5-B463-0F1E5A9C6AC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -815,6 +814,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C142F92-CC39-44E8-8CB5-8AFE56EBC8FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9102A4-2350-4E63-91F3-4501B7C29F89}">
   <ds:schemaRefs>
